--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/2/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/2/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.12838</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>2128.38</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,21 +488,21 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.72214</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>2722.14</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12401</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>3.25872</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>3258.72</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
@@ -510,1055 +510,1055 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>3.67957</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>3679.57</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186017</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>4.11398</v>
+        <v>6.499390000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>4113.98</v>
+        <v>6499.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216993</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>4.51485</v>
+        <v>6.86076</v>
       </c>
       <c r="C9" t="n">
-        <v>4514.85</v>
+        <v>6860.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247937</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>4.8695</v>
+        <v>7.05836</v>
       </c>
       <c r="C10" t="n">
-        <v>4869.5</v>
+        <v>7058.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278862</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>5.20092</v>
+        <v>7.09367</v>
       </c>
       <c r="C11" t="n">
-        <v>5200.92</v>
+        <v>7093.67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309787</v>
+        <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>5.49835</v>
+        <v>7.10704</v>
       </c>
       <c r="C12" t="n">
-        <v>5498.35</v>
+        <v>7107.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340712</v>
+        <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>5.73885</v>
+        <v>7.11453</v>
       </c>
       <c r="C13" t="n">
-        <v>5738.85</v>
+        <v>7114.53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371637</v>
+        <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>5.951600000000001</v>
+        <v>7.11719</v>
       </c>
       <c r="C14" t="n">
-        <v>5951.6</v>
+        <v>7117.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402562</v>
+        <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>6.131790000000001</v>
+        <v>7.118600000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>6131.79</v>
+        <v>7118.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433487</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>6.25525</v>
+        <v>7.118600000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>6255.25</v>
+        <v>7118.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464412</v>
+        <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>6.322970000000001</v>
+        <v>7.11728</v>
       </c>
       <c r="C17" t="n">
-        <v>6322.97</v>
+        <v>7117.28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495337</v>
+        <v>0.495367</v>
       </c>
       <c r="B18" t="n">
-        <v>6.37286</v>
+        <v>7.11482</v>
       </c>
       <c r="C18" t="n">
-        <v>6372.86</v>
+        <v>7114.82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526262</v>
+        <v>0.526292</v>
       </c>
       <c r="B19" t="n">
-        <v>6.39899</v>
+        <v>7.1114</v>
       </c>
       <c r="C19" t="n">
-        <v>6398.99</v>
+        <v>7111.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557187</v>
+        <v>0.557217</v>
       </c>
       <c r="B20" t="n">
-        <v>6.41492</v>
+        <v>7.10697</v>
       </c>
       <c r="C20" t="n">
-        <v>6414.92</v>
+        <v>7106.97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588112</v>
+        <v>0.5881420000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>6.42813</v>
+        <v>7.10158</v>
       </c>
       <c r="C21" t="n">
-        <v>6428.13</v>
+        <v>7101.58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619154</v>
+        <v>0.619184</v>
       </c>
       <c r="B22" t="n">
-        <v>6.43785</v>
+        <v>7.095020000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>6437.85</v>
+        <v>7095.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650327</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>6.444970000000001</v>
+        <v>7.08751</v>
       </c>
       <c r="C23" t="n">
-        <v>6444.97</v>
+        <v>7087.51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815</v>
+        <v>0.6815290000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>6.44949</v>
+        <v>7.0792</v>
       </c>
       <c r="C24" t="n">
-        <v>6449.49</v>
+        <v>7079.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712677</v>
+        <v>0.712706</v>
       </c>
       <c r="B25" t="n">
-        <v>6.451890000000001</v>
+        <v>7.07009</v>
       </c>
       <c r="C25" t="n">
-        <v>6451.89</v>
+        <v>7070.09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743849</v>
+        <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>6.45323</v>
+        <v>7.0602</v>
       </c>
       <c r="C26" t="n">
-        <v>6453.23</v>
+        <v>7060.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775022</v>
+        <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>6.4532</v>
+        <v>7.04944</v>
       </c>
       <c r="C27" t="n">
-        <v>6453.2</v>
+        <v>7049.44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806199</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>6.451630000000001</v>
+        <v>7.037890000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>6451.63</v>
+        <v>7037.89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837371</v>
+        <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>6.44898</v>
+        <v>7.02549</v>
       </c>
       <c r="C29" t="n">
-        <v>6448.98</v>
+        <v>7025.49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868548</v>
+        <v>0.868578</v>
       </c>
       <c r="B30" t="n">
-        <v>6.44508</v>
+        <v>7.01229</v>
       </c>
       <c r="C30" t="n">
-        <v>6445.08</v>
+        <v>7012.29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899721</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>6.44016</v>
+        <v>6.998180000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>6440.16</v>
+        <v>6998.18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930893</v>
+        <v>0.9309229999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>6.43417</v>
+        <v>6.983270000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>6434.17</v>
+        <v>6983.27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.96207</v>
+        <v>0.9621</v>
       </c>
       <c r="B33" t="n">
-        <v>6.42675</v>
+        <v>6.96716</v>
       </c>
       <c r="C33" t="n">
-        <v>6426.75</v>
+        <v>6967.16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993243</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>6.41841</v>
+        <v>6.94997</v>
       </c>
       <c r="C34" t="n">
-        <v>6418.41</v>
+        <v>6949.97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02426</v>
+        <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>6.409149999999999</v>
+        <v>6.931850000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>6409.15</v>
+        <v>6931.85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05523</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>6.39885</v>
+        <v>6.912310000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>6398.85</v>
+        <v>6912.31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0862</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>6.387600000000001</v>
+        <v>6.89192</v>
       </c>
       <c r="C37" t="n">
-        <v>6387.6</v>
+        <v>6891.92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11717</v>
+        <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>6.375430000000001</v>
+        <v>6.87054</v>
       </c>
       <c r="C38" t="n">
-        <v>6375.43</v>
+        <v>6870.54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14814</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>6.3622</v>
+        <v>6.84818</v>
       </c>
       <c r="C39" t="n">
-        <v>6362.2</v>
+        <v>6848.18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.1791</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>6.34803</v>
+        <v>6.82488</v>
       </c>
       <c r="C40" t="n">
-        <v>6348.03</v>
+        <v>6824.88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21007</v>
+        <v>1.21286</v>
       </c>
       <c r="B41" t="n">
-        <v>6.33266</v>
+        <v>6.80046</v>
       </c>
       <c r="C41" t="n">
-        <v>6332.66</v>
+        <v>6800.46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24104</v>
+        <v>1.24424</v>
       </c>
       <c r="B42" t="n">
-        <v>6.3159</v>
+        <v>6.77447</v>
       </c>
       <c r="C42" t="n">
-        <v>6315.9</v>
+        <v>6774.47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27201</v>
+        <v>1.27562</v>
       </c>
       <c r="B43" t="n">
-        <v>6.29791</v>
+        <v>6.746939999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>6297.91</v>
+        <v>6746.94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30298</v>
+        <v>1.307</v>
       </c>
       <c r="B44" t="n">
-        <v>6.278840000000001</v>
+        <v>6.71827</v>
       </c>
       <c r="C44" t="n">
-        <v>6278.84</v>
+        <v>6718.27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33394</v>
+        <v>1.33838</v>
       </c>
       <c r="B45" t="n">
-        <v>6.2587</v>
+        <v>6.688350000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>6258.7</v>
+        <v>6688.35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36491</v>
+        <v>1.36966</v>
       </c>
       <c r="B46" t="n">
-        <v>6.23742</v>
+        <v>6.65714</v>
       </c>
       <c r="C46" t="n">
-        <v>6237.42</v>
+        <v>6657.14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39588</v>
+        <v>1.4005</v>
       </c>
       <c r="B47" t="n">
-        <v>6.215</v>
+        <v>6.62486</v>
       </c>
       <c r="C47" t="n">
-        <v>6215</v>
+        <v>6624.86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42685</v>
+        <v>1.4317</v>
       </c>
       <c r="B48" t="n">
-        <v>6.19127</v>
+        <v>6.59064</v>
       </c>
       <c r="C48" t="n">
-        <v>6191.27</v>
+        <v>6590.64</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45782</v>
+        <v>1.4625</v>
       </c>
       <c r="B49" t="n">
-        <v>6.16611</v>
+        <v>6.55508</v>
       </c>
       <c r="C49" t="n">
-        <v>6166.11</v>
+        <v>6555.08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48878</v>
+        <v>1.49365</v>
       </c>
       <c r="B50" t="n">
-        <v>6.13958</v>
+        <v>6.51717</v>
       </c>
       <c r="C50" t="n">
-        <v>6139.58</v>
+        <v>6517.17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51975</v>
+        <v>1.52456</v>
       </c>
       <c r="B51" t="n">
-        <v>6.11171</v>
+        <v>6.47769</v>
       </c>
       <c r="C51" t="n">
-        <v>6111.71</v>
+        <v>6477.69</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55072</v>
+        <v>1.55564</v>
       </c>
       <c r="B52" t="n">
-        <v>6.08237</v>
+        <v>6.436100000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>6082.37</v>
+        <v>6436.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58168</v>
+        <v>1.58661</v>
       </c>
       <c r="B53" t="n">
-        <v>6.051600000000001</v>
+        <v>6.39276</v>
       </c>
       <c r="C53" t="n">
-        <v>6051.6</v>
+        <v>6392.76</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61265</v>
+        <v>1.61757</v>
       </c>
       <c r="B54" t="n">
-        <v>6.019340000000001</v>
+        <v>6.347420000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>6019.34</v>
+        <v>6347.42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64346</v>
+        <v>1.64866</v>
       </c>
       <c r="B55" t="n">
-        <v>5.9859</v>
+        <v>6.29992</v>
       </c>
       <c r="C55" t="n">
-        <v>5985.9</v>
+        <v>6299.92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67469</v>
+        <v>1.67947</v>
       </c>
       <c r="B56" t="n">
-        <v>5.950460000000001</v>
+        <v>6.25078</v>
       </c>
       <c r="C56" t="n">
-        <v>5950.46</v>
+        <v>6250.78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70551</v>
+        <v>1.71067</v>
       </c>
       <c r="B57" t="n">
-        <v>5.91377</v>
+        <v>6.19865</v>
       </c>
       <c r="C57" t="n">
-        <v>5913.77</v>
+        <v>6198.65</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73662</v>
+        <v>1.74162</v>
       </c>
       <c r="B58" t="n">
-        <v>5.874989999999999</v>
+        <v>6.14489</v>
       </c>
       <c r="C58" t="n">
-        <v>5874.99</v>
+        <v>6144.89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76762</v>
+        <v>1.77261</v>
       </c>
       <c r="B59" t="n">
-        <v>5.83465</v>
+        <v>6.08901</v>
       </c>
       <c r="C59" t="n">
-        <v>5834.65</v>
+        <v>6089.01</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79855</v>
+        <v>1.80367</v>
       </c>
       <c r="B60" t="n">
-        <v>5.792590000000001</v>
+        <v>6.03074</v>
       </c>
       <c r="C60" t="n">
-        <v>5792.59</v>
+        <v>6030.74</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82968</v>
+        <v>1.83449</v>
       </c>
       <c r="B61" t="n">
-        <v>5.74842</v>
+        <v>5.970899999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>5748.42</v>
+        <v>5970.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86046</v>
+        <v>1.86572</v>
       </c>
       <c r="B62" t="n">
-        <v>5.70268</v>
+        <v>5.908189999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>5702.68</v>
+        <v>5908.19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89166</v>
+        <v>1.89637</v>
       </c>
       <c r="B63" t="n">
-        <v>5.65436</v>
+        <v>5.844720000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>5654.36</v>
+        <v>5844.72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92261</v>
+        <v>1.92771</v>
       </c>
       <c r="B64" t="n">
-        <v>5.60438</v>
+        <v>5.778210000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>5604.38</v>
+        <v>5778.21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95354</v>
+        <v>1.95841</v>
       </c>
       <c r="B65" t="n">
-        <v>5.55262</v>
+        <v>5.711390000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>5552.62</v>
+        <v>5711.39</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98467</v>
+        <v>1.98975</v>
       </c>
       <c r="B66" t="n">
-        <v>5.49845</v>
+        <v>5.641640000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>5498.45</v>
+        <v>5641.64</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01536</v>
+        <v>2.02051</v>
       </c>
       <c r="B67" t="n">
-        <v>5.44295</v>
+        <v>5.572109999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>5442.95</v>
+        <v>5572.11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04653</v>
+        <v>2.05172</v>
       </c>
       <c r="B68" t="n">
-        <v>5.38449</v>
+        <v>5.499680000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>5384.49</v>
+        <v>5499.68</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07733</v>
+        <v>2.08247</v>
       </c>
       <c r="B69" t="n">
-        <v>5.32481</v>
+        <v>5.4279</v>
       </c>
       <c r="C69" t="n">
-        <v>5324.81</v>
+        <v>5427.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10859</v>
+        <v>2.11376</v>
       </c>
       <c r="B70" t="n">
-        <v>5.26282</v>
+        <v>5.35317</v>
       </c>
       <c r="C70" t="n">
-        <v>5262.82</v>
+        <v>5353.17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13942</v>
+        <v>2.14444</v>
       </c>
       <c r="B71" t="n">
-        <v>5.19943</v>
+        <v>5.27942</v>
       </c>
       <c r="C71" t="n">
-        <v>5199.43</v>
+        <v>5279.42</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17043</v>
+        <v>2.17576</v>
       </c>
       <c r="B72" t="n">
-        <v>5.13424</v>
+        <v>5.20335</v>
       </c>
       <c r="C72" t="n">
-        <v>5134.24</v>
+        <v>5203.35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20163</v>
+        <v>2.20663</v>
       </c>
       <c r="B73" t="n">
-        <v>5.067550000000001</v>
+        <v>5.12805</v>
       </c>
       <c r="C73" t="n">
-        <v>5067.55</v>
+        <v>5128.05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23241</v>
+        <v>2.23749</v>
       </c>
       <c r="B74" t="n">
-        <v>4.99937</v>
+        <v>5.0524</v>
       </c>
       <c r="C74" t="n">
-        <v>4999.37</v>
+        <v>5052.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26348</v>
+        <v>2.26885</v>
       </c>
       <c r="B75" t="n">
-        <v>4.93012</v>
+        <v>4.975779999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>4930.12</v>
+        <v>4975.78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29447</v>
+        <v>2.29925</v>
       </c>
       <c r="B76" t="n">
-        <v>4.859520000000001</v>
+        <v>4.90055</v>
       </c>
       <c r="C76" t="n">
-        <v>4859.52</v>
+        <v>4900.55</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32533</v>
+        <v>2.33092</v>
       </c>
       <c r="B77" t="n">
-        <v>4.78829</v>
+        <v>4.82349</v>
       </c>
       <c r="C77" t="n">
-        <v>4788.29</v>
+        <v>4823.49</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35662</v>
+        <v>2.36164</v>
       </c>
       <c r="B78" t="n">
-        <v>4.71594</v>
+        <v>4.7468</v>
       </c>
       <c r="C78" t="n">
-        <v>4715.94</v>
+        <v>4746.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38706</v>
+        <v>2.39236</v>
       </c>
       <c r="B79" t="n">
-        <v>4.64404</v>
+        <v>4.67137</v>
       </c>
       <c r="C79" t="n">
-        <v>4644.04</v>
+        <v>4671.37</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41868</v>
+        <v>2.42359</v>
       </c>
       <c r="B80" t="n">
-        <v>4.5701</v>
+        <v>4.59436</v>
       </c>
       <c r="C80" t="n">
-        <v>4570.1</v>
+        <v>4594.36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45067</v>
+        <v>2.45468</v>
       </c>
       <c r="B81" t="n">
-        <v>4.49365</v>
+        <v>4.51758</v>
       </c>
       <c r="C81" t="n">
-        <v>4493.65</v>
+        <v>4517.58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48267</v>
+        <v>2.48576</v>
       </c>
       <c r="B82" t="n">
-        <v>4.41828</v>
+        <v>4.44275</v>
       </c>
       <c r="C82" t="n">
-        <v>4418.28</v>
+        <v>4442.75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51351</v>
+        <v>2.51563</v>
       </c>
       <c r="B83" t="n">
-        <v>4.34442</v>
+        <v>4.36974</v>
       </c>
       <c r="C83" t="n">
-        <v>4344.42</v>
+        <v>4369.74</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54391</v>
+        <v>2.54489</v>
       </c>
       <c r="B84" t="n">
-        <v>4.27217</v>
+        <v>4.298859999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>4272.17</v>
+        <v>4298.86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57383</v>
+        <v>2.57524</v>
       </c>
       <c r="B85" t="n">
-        <v>4.201899999999999</v>
+        <v>4.22767</v>
       </c>
       <c r="C85" t="n">
-        <v>4201.9</v>
+        <v>4227.67</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60424</v>
+        <v>2.60831</v>
       </c>
       <c r="B86" t="n">
-        <v>4.12954</v>
+        <v>4.15</v>
       </c>
       <c r="C86" t="n">
-        <v>4129.54</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63715</v>
+        <v>2.64031</v>
       </c>
       <c r="B87" t="n">
-        <v>4.05333</v>
+        <v>4.0746</v>
       </c>
       <c r="C87" t="n">
-        <v>4053.33</v>
+        <v>4074.6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66875</v>
+        <v>2.67231</v>
       </c>
       <c r="B88" t="n">
-        <v>3.97949</v>
+        <v>4.001440000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>3979.49</v>
+        <v>4001.44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69984</v>
+        <v>2.70398</v>
       </c>
       <c r="B89" t="n">
-        <v>3.90784</v>
+        <v>3.93056</v>
       </c>
       <c r="C89" t="n">
-        <v>3907.84</v>
+        <v>3930.56</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73092</v>
+        <v>2.73384</v>
       </c>
       <c r="B90" t="n">
-        <v>3.83816</v>
+        <v>3.86224</v>
       </c>
       <c r="C90" t="n">
-        <v>3838.16</v>
+        <v>3862.24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76043</v>
+        <v>2.76371</v>
       </c>
       <c r="B91" t="n">
-        <v>3.77051</v>
+        <v>3.79602</v>
       </c>
       <c r="C91" t="n">
-        <v>3770.51</v>
+        <v>3796.02</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78969</v>
+        <v>2.79358</v>
       </c>
       <c r="B92" t="n">
-        <v>3.7051</v>
+        <v>3.73254</v>
       </c>
       <c r="C92" t="n">
-        <v>3705.1</v>
+        <v>3732.54</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82061</v>
+        <v>2.82312</v>
       </c>
       <c r="B93" t="n">
-        <v>3.63821</v>
+        <v>3.67165</v>
       </c>
       <c r="C93" t="n">
-        <v>3638.21</v>
+        <v>3671.65</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85349</v>
+        <v>2.85277</v>
       </c>
       <c r="B94" t="n">
-        <v>3.56728</v>
+        <v>3.60899</v>
       </c>
       <c r="C94" t="n">
-        <v>3567.28</v>
+        <v>3608.99</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88549</v>
+        <v>2.88605</v>
       </c>
       <c r="B95" t="n">
-        <v>3.49922</v>
+        <v>3.54115</v>
       </c>
       <c r="C95" t="n">
-        <v>3499.22</v>
+        <v>3541.15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91748</v>
+        <v>2.9184</v>
       </c>
       <c r="B96" t="n">
-        <v>3.43367</v>
+        <v>3.47823</v>
       </c>
       <c r="C96" t="n">
-        <v>3433.67</v>
+        <v>3478.23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94921</v>
+        <v>2.94912</v>
       </c>
       <c r="B97" t="n">
-        <v>3.37102</v>
+        <v>3.41913</v>
       </c>
       <c r="C97" t="n">
-        <v>3371.02</v>
+        <v>3419.13</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97907</v>
+        <v>2.97984</v>
       </c>
       <c r="B98" t="n">
-        <v>3.31089</v>
+        <v>3.3621</v>
       </c>
       <c r="C98" t="n">
-        <v>3310.89</v>
+        <v>3362.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00894</v>
+        <v>3.01056</v>
       </c>
       <c r="B99" t="n">
-        <v>3.25345</v>
+        <v>3.30898</v>
       </c>
       <c r="C99" t="n">
-        <v>3253.45</v>
+        <v>3308.98</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03881</v>
+        <v>3.04128</v>
       </c>
       <c r="B100" t="n">
-        <v>3.19818</v>
+        <v>3.25755</v>
       </c>
       <c r="C100" t="n">
-        <v>3198.18</v>
+        <v>3257.55</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06854</v>
+        <v>3.072</v>
       </c>
       <c r="B101" t="n">
-        <v>3.14582</v>
+        <v>3.20846</v>
       </c>
       <c r="C101" t="n">
-        <v>3145.82</v>
+        <v>3208.46</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09966</v>
+        <v>3.10254</v>
       </c>
       <c r="B102" t="n">
-        <v>3.10063</v>
+        <v>3.16136</v>
       </c>
       <c r="C102" t="n">
-        <v>3100.63</v>
+        <v>3161.36</v>
       </c>
     </row>
   </sheetData>
